--- a/Document/Angular/Angular_9.xlsx
+++ b/Document/Angular/Angular_9.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Lifecycle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>https://github.com/angular-vietnam/100-days-of-angular</t>
   </si>
@@ -152,6 +153,17 @@
 Object: `{[key: string]: string
 Noted:
 Có thể dash-key hoặc camelCase</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/bbachi/angular-lifecycle-hooks.git// install dependencies
+npm install// start the project
+npm start</t>
+  </si>
+  <si>
+    <t>Note.</t>
+  </si>
+  <si>
+    <t>ngOnChanges() khi có thay đổi Input binding mới chạy.</t>
   </si>
 </sst>
 </file>
@@ -196,8 +208,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -238,14 +253,74 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>337074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>518885</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://images.viblo.asia/31e6001f-ff3a-4eb8-b94d-e791251d532a.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5807145" y="16328"/>
+          <a:ext cx="6867454" cy="4911272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D18" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D18" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A3:D18"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Syntax" dataDxfId="4"/>
-    <tableColumn id="2" name="Define" dataDxfId="3"/>
-    <tableColumn id="3" name="Note" dataDxfId="2"/>
-    <tableColumn id="4" name="Example" dataDxfId="1"/>
+    <tableColumn id="1" name="Syntax" dataDxfId="3"/>
+    <tableColumn id="2" name="Define" dataDxfId="2"/>
+    <tableColumn id="3" name="Note" dataDxfId="1"/>
+    <tableColumn id="4" name="Example" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -528,8 +603,8 @@
     <col min="4" max="4" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -548,152 +623,152 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -707,4 +782,49 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>